--- a/biology/Zoologie/Euryoryzomys/Euryoryzomys.xlsx
+++ b/biology/Zoologie/Euryoryzomys/Euryoryzomys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euryoryzomys est un genre de rongeurs de la famille des Cricetidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (12 juillet 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (12 juillet 2020) :
 Euryoryzomys emmonsae (Musser, Carleton, Brothers &amp; Gardner, 1998)
 Euryoryzomys lamia (Thomas, 1901)
 Euryoryzomys legatus (Thomas, 1925)
@@ -547,7 +561,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Marcelo Weksler, Alexandre Reis Percequillo et Robert S. Voss, « Ten New Genera of Oryzomyine Rodents (Cricetidae: Sigmodontinae) », American Museum Novitates, New York, Musée américain d'histoire naturelle, vol. 3537, no 1,‎ 2006, p. 1 (ISSN 0003-0082 et 1937-352X, OCLC 47720325, DOI 10.1206/0003-0082(2006)3537[1:TNGOOR]2.0.CO;2, lire en ligne)</t>
         </is>
